--- a/quandl_eps_analysis.xlsx
+++ b/quandl_eps_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galen/Documents/EPS-variance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD143E39-2240-2949-8594-295D5D07A43F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0031384-05F3-CF41-9482-91D704D316FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35640" yWindow="2620" windowWidth="28040" windowHeight="17040" xr2:uid="{DBE13D81-48CA-7B40-A945-FEB2AF373937}"/>
+    <workbookView xWindow="-35640" yWindow="2620" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{DBE13D81-48CA-7B40-A945-FEB2AF373937}"/>
   </bookViews>
   <sheets>
     <sheet name="eps" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="38">
   <si>
     <t>Aircraft engines &amp; engine parts</t>
   </si>
@@ -136,7 +136,10 @@
     <t>WALMART INC</t>
   </si>
   <si>
-    <t>fcst_qtile</t>
+    <t>avg_fcst_err</t>
+  </si>
+  <si>
+    <t>fcst_rank</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF60D02-1A9B-0E4A-8D81-28133E80A68E}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -2165,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB71193-A525-5D4B-B758-A3CE75662CE1}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2176,84 +2179,114 @@
     <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.4626865671641902E-3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.1437084497134601E-2</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
+        <v>3.5274996867113502E-2</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.8277713847334096E-2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.8371969554259897E-2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.9050513822550303E-2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B8" s="2">
+        <v>9.3315165778933895E-2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9.41176470588235E-2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
+      <c r="B10" s="2">
+        <v>0.12096846473624701</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
